--- a/resources/experiment 1/metrics/MAPE/upto time/Retinopatía de fondo (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Retinopatía de fondo (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9782815623015.143</v>
+        <v>9068982222090.75</v>
       </c>
       <c r="C3" t="n">
-        <v>9855702226191.965</v>
+        <v>13751630899183.12</v>
       </c>
       <c r="D3" t="n">
-        <v>9855702226191.965</v>
+        <v>11238905383591.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36712597920152.4</v>
+        <v>4326911561266.629</v>
       </c>
       <c r="C4" t="n">
-        <v>37422685586938.29</v>
+        <v>4326911561266.627</v>
       </c>
       <c r="D4" t="n">
-        <v>37422685586938.29</v>
+        <v>4326911561266.628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>432901026832841.1</v>
+        <v>443601960344741.6</v>
       </c>
       <c r="C5" t="n">
-        <v>434662905755836.8</v>
+        <v>405173521700405.2</v>
       </c>
       <c r="D5" t="n">
-        <v>434662905755836.8</v>
+        <v>476228807997274.3</v>
       </c>
     </row>
   </sheetData>
